--- a/input_data/USA/Filter_1967_Base.xlsx
+++ b/input_data/USA/Filter_1967_Base.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37989B16-72EB-4103-8FA4-F7719411F04E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C450FB-62C3-4587-8E25-7E8904199F7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -2760,34 +2760,34 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -2835,10 +2835,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>524</v>
       </c>
@@ -2853,19 +2853,19 @@
   <dimension ref="A1:AB486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M270" sqref="M270"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="Y1" s="62"/>
       <c r="Z1" s="62"/>
     </row>
-    <row r="2" spans="1:28" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>510</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10100</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10200</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10301</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10302</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20100</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20201</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20202</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20203</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20300</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20401</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20402</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20501</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20502</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20503</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20600</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20701</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20702</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40000</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50000</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>60100</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>60200</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>70000</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>80000</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90000</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100000</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>110101</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>110102</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>110103</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>110104</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>110105</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>110106</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>110107</v>
       </c>
@@ -5821,10 +5821,10 @@
         <v>1</v>
       </c>
       <c r="I35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="6">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>110201</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>110202</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>110203</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>110204</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>110205</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>110206</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>110207</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>110208</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>110209</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>110301</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>110302</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>110303</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>110304</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>110305</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>110306</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>110307</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>110308</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>110400</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>110501</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>110502</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>110503</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>110504</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>110505</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>110506</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>110507</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>120100</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>120201</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>120202</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>120203</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>120204</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>120205</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>120206</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>120207</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>120208</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>120209</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>120210</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>120211</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>120212</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>120213</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>120214</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>120215</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>120216</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>130100</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>130200</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>130300</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>130400</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>130500</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>130600</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>130700</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>140101</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>140102</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>140103</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>140200</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>140300</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>140400</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>140500</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>140600</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>140700</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>140800</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>140900</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>141000</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>141100</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>141200</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>141300</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>141401</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>141402</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>141403</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>141500</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>141600</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>141700</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>141801</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>141802</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>141900</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>142001</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>142002</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>142003</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>142101</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>142102</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>142103</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>142104</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>142200</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>142300</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>142400</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>142500</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>142600</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>142700</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>142800</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>142900</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>143000</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>143100</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>143200</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>150101</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>150102</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>150103</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>150200</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>160100</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>160200</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>160300</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>160400</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>170100</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>170200</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>170300</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>170400</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>170500</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>170600</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>170700</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>170800</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>170900</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>171000</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>180101</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>180102</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>180201</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>180202</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>180203</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>180300</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>180400</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>190100</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>190200</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>190301</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>190302</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>190303</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>190304</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>190305</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>190306</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>200100</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>200200</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>200300</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>200400</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>200500</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>200600</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>200700</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>200800</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>200900</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>210000</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>220101</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>220102</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>220200</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>220300</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>220400</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>230100</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>230200</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>230300</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>230400</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>230500</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>230600</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>230700</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>240100</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>240200</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>240300</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>240400</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>240500</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>240601</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>240602</v>
       </c>
@@ -19331,7 +19331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>240701</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>240702</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>240703</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>240704</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>240705</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>250000</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>260100</v>
       </c>
@@ -19947,7 +19947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>260200</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>260301</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>260302</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>260400</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>260500</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>260601</v>
       </c>
@@ -20475,7 +20475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>260602</v>
       </c>
@@ -20563,7 +20563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>260700</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>260801</v>
       </c>
@@ -20739,7 +20739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>260802</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>260803</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>260804</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>260805</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>270100</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>270201</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>270202</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>270300</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>270401</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>270402</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>270403</v>
       </c>
@@ -21707,7 +21707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>270404</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>270405</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>270406</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>280100</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>280200</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>280300</v>
       </c>
@@ -22235,7 +22235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>280400</v>
       </c>
@@ -22323,7 +22323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>290100</v>
       </c>
@@ -22411,7 +22411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>290201</v>
       </c>
@@ -22499,7 +22499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>290202</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>290203</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>290300</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>300000</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>310100</v>
       </c>
@@ -22939,7 +22939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>310200</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>310300</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>320100</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>320200</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>320301</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>320302</v>
       </c>
@@ -23467,7 +23467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>320400</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>330001</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>330002</v>
       </c>
@@ -23731,7 +23731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>340100</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>340201</v>
       </c>
@@ -23907,7 +23907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>340202</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>340301</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>340302</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>340303</v>
       </c>
@@ -24259,7 +24259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>340304</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>340305</v>
       </c>
@@ -24435,7 +24435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>350100</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>350200</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>360100</v>
       </c>
@@ -24699,7 +24699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>360200</v>
       </c>
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>360300</v>
       </c>
@@ -24875,7 +24875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>360400</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>360500</v>
       </c>
@@ -25051,7 +25051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>360600</v>
       </c>
@@ -25139,7 +25139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>360701</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>360702</v>
       </c>
@@ -25315,7 +25315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>360800</v>
       </c>
@@ -25403,7 +25403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>360900</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>361000</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>361100</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>361200</v>
       </c>
@@ -25755,7 +25755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>361300</v>
       </c>
@@ -25843,7 +25843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>361400</v>
       </c>
@@ -25931,7 +25931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>361500</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>361600</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>361700</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>361800</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>361900</v>
       </c>
@@ -26371,7 +26371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>362000</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>362100</v>
       </c>
@@ -26547,7 +26547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>362200</v>
       </c>
@@ -26635,7 +26635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>370101</v>
       </c>
@@ -26723,7 +26723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>370102</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>370103</v>
       </c>
@@ -26899,7 +26899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>370104</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>370105</v>
       </c>
@@ -27075,7 +27075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>370200</v>
       </c>
@@ -27163,7 +27163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>370300</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>370400</v>
       </c>
@@ -27339,7 +27339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>380100</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>380200</v>
       </c>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>380300</v>
       </c>
@@ -27603,7 +27603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>380400</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>380500</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>380600</v>
       </c>
@@ -27867,7 +27867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>380700</v>
       </c>
@@ -27955,7 +27955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>380800</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>380900</v>
       </c>
@@ -28131,7 +28131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>381000</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>381100</v>
       </c>
@@ -28307,7 +28307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>381200</v>
       </c>
@@ -28395,7 +28395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>381300</v>
       </c>
@@ -28483,7 +28483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>381400</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>390100</v>
       </c>
@@ -28659,7 +28659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>390200</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>400100</v>
       </c>
@@ -28835,7 +28835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>400200</v>
       </c>
@@ -28923,7 +28923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>400300</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>400400</v>
       </c>
@@ -29099,7 +29099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>400500</v>
       </c>
@@ -29187,7 +29187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>400600</v>
       </c>
@@ -29275,7 +29275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>400700</v>
       </c>
@@ -29363,7 +29363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>400800</v>
       </c>
@@ -29451,7 +29451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>400900</v>
       </c>
@@ -29539,7 +29539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>410100</v>
       </c>
@@ -29627,7 +29627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>410200</v>
       </c>
@@ -29715,7 +29715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>420100</v>
       </c>
@@ -29803,7 +29803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>420201</v>
       </c>
@@ -29891,7 +29891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>420202</v>
       </c>
@@ -29979,7 +29979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>420300</v>
       </c>
@@ -30067,7 +30067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>420401</v>
       </c>
@@ -30155,7 +30155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>420402</v>
       </c>
@@ -30243,7 +30243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>420500</v>
       </c>
@@ -30331,7 +30331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>420600</v>
       </c>
@@ -30419,7 +30419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>420700</v>
       </c>
@@ -30507,7 +30507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>420800</v>
       </c>
@@ -30595,7 +30595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>420900</v>
       </c>
@@ -30683,7 +30683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>421000</v>
       </c>
@@ -30771,7 +30771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>421100</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>430100</v>
       </c>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>430200</v>
       </c>
@@ -31035,7 +31035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>440000</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>450100</v>
       </c>
@@ -31211,7 +31211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>450200</v>
       </c>
@@ -31299,7 +31299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>450300</v>
       </c>
@@ -31387,7 +31387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>460100</v>
       </c>
@@ -31475,7 +31475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>460200</v>
       </c>
@@ -31563,7 +31563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>460300</v>
       </c>
@@ -31651,7 +31651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>460400</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>470100</v>
       </c>
@@ -31827,7 +31827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>470200</v>
       </c>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>470300</v>
       </c>
@@ -32003,7 +32003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>470400</v>
       </c>
@@ -32091,7 +32091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>480100</v>
       </c>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>480200</v>
       </c>
@@ -32267,7 +32267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>480300</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>480400</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>480500</v>
       </c>
@@ -32531,7 +32531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>480600</v>
       </c>
@@ -32619,7 +32619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>490100</v>
       </c>
@@ -32707,7 +32707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>490200</v>
       </c>
@@ -32795,7 +32795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>490300</v>
       </c>
@@ -32883,7 +32883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>490400</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>490500</v>
       </c>
@@ -33059,7 +33059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>490600</v>
       </c>
@@ -33147,7 +33147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>490700</v>
       </c>
@@ -33235,7 +33235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>500000</v>
       </c>
@@ -33323,7 +33323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>510101</v>
       </c>
@@ -33411,7 +33411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>510102</v>
       </c>
@@ -33499,7 +33499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>510200</v>
       </c>
@@ -33587,7 +33587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>510300</v>
       </c>
@@ -33675,7 +33675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>510400</v>
       </c>
@@ -33763,7 +33763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>520100</v>
       </c>
@@ -33851,7 +33851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>520200</v>
       </c>
@@ -33939,7 +33939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>520300</v>
       </c>
@@ -34027,7 +34027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>520400</v>
       </c>
@@ -34115,7 +34115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>520500</v>
       </c>
@@ -34203,7 +34203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>530100</v>
       </c>
@@ -34291,7 +34291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>530200</v>
       </c>
@@ -34379,7 +34379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>530300</v>
       </c>
@@ -34467,7 +34467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>530400</v>
       </c>
@@ -34555,7 +34555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>530500</v>
       </c>
@@ -34643,7 +34643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>530600</v>
       </c>
@@ -34731,7 +34731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>530700</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>530800</v>
       </c>
@@ -34907,7 +34907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>540100</v>
       </c>
@@ -34995,7 +34995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>540200</v>
       </c>
@@ -35083,7 +35083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>540300</v>
       </c>
@@ -35171,7 +35171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>540400</v>
       </c>
@@ -35259,7 +35259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>540500</v>
       </c>
@@ -35347,7 +35347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>540600</v>
       </c>
@@ -35435,7 +35435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>540700</v>
       </c>
@@ -35523,7 +35523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>550100</v>
       </c>
@@ -35611,7 +35611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>550200</v>
       </c>
@@ -35699,7 +35699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>550300</v>
       </c>
@@ -35787,7 +35787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>560100</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>560200</v>
       </c>
@@ -35963,7 +35963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>560300</v>
       </c>
@@ -36051,7 +36051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>560400</v>
       </c>
@@ -36139,7 +36139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>570100</v>
       </c>
@@ -36227,7 +36227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>570200</v>
       </c>
@@ -36315,7 +36315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>570300</v>
       </c>
@@ -36403,7 +36403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>580100</v>
       </c>
@@ -36491,7 +36491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>580200</v>
       </c>
@@ -36579,7 +36579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>580300</v>
       </c>
@@ -36667,7 +36667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>580400</v>
       </c>
@@ -36755,7 +36755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>580500</v>
       </c>
@@ -36843,7 +36843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>590100</v>
       </c>
@@ -36931,7 +36931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>590200</v>
       </c>
@@ -37019,7 +37019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>590301</v>
       </c>
@@ -37107,7 +37107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>590302</v>
       </c>
@@ -37195,7 +37195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>600100</v>
       </c>
@@ -37283,7 +37283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>600200</v>
       </c>
@@ -37371,7 +37371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>600300</v>
       </c>
@@ -37459,7 +37459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>600400</v>
       </c>
@@ -37547,7 +37547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>610100</v>
       </c>
@@ -37635,7 +37635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>610200</v>
       </c>
@@ -37723,7 +37723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>610300</v>
       </c>
@@ -37811,7 +37811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>610400</v>
       </c>
@@ -37899,7 +37899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>610500</v>
       </c>
@@ -37987,7 +37987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>610600</v>
       </c>
@@ -38075,7 +38075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>610700</v>
       </c>
@@ -38163,7 +38163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>620100</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>620200</v>
       </c>
@@ -38339,7 +38339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>620300</v>
       </c>
@@ -38427,7 +38427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>620400</v>
       </c>
@@ -38515,7 +38515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>620500</v>
       </c>
@@ -38603,7 +38603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>620600</v>
       </c>
@@ -38691,7 +38691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>620701</v>
       </c>
@@ -38779,7 +38779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>620702</v>
       </c>
@@ -38867,7 +38867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>630100</v>
       </c>
@@ -38955,7 +38955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>630200</v>
       </c>
@@ -39043,7 +39043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>630300</v>
       </c>
@@ -39131,7 +39131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>640101</v>
       </c>
@@ -39219,7 +39219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>640102</v>
       </c>
@@ -39307,7 +39307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>640103</v>
       </c>
@@ -39395,7 +39395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>640104</v>
       </c>
@@ -39483,7 +39483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>640105</v>
       </c>
@@ -39571,7 +39571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>640200</v>
       </c>
@@ -39659,7 +39659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>640301</v>
       </c>
@@ -39747,7 +39747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>640302</v>
       </c>
@@ -39835,7 +39835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>640303</v>
       </c>
@@ -39923,7 +39923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>640400</v>
       </c>
@@ -40011,7 +40011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>640501</v>
       </c>
@@ -40099,7 +40099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>640502</v>
       </c>
@@ -40187,7 +40187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>640503</v>
       </c>
@@ -40275,7 +40275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>640504</v>
       </c>
@@ -40363,7 +40363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>640600</v>
       </c>
@@ -40451,7 +40451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>640701</v>
       </c>
@@ -40539,7 +40539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>640702</v>
       </c>
@@ -40627,7 +40627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>640800</v>
       </c>
@@ -40715,7 +40715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>640900</v>
       </c>
@@ -40803,7 +40803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>641000</v>
       </c>
@@ -40891,7 +40891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>641100</v>
       </c>
@@ -40979,7 +40979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>641200</v>
       </c>
@@ -41067,7 +41067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>650100</v>
       </c>
@@ -41155,7 +41155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>650200</v>
       </c>
@@ -41243,7 +41243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>650300</v>
       </c>
@@ -41331,7 +41331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>650400</v>
       </c>
@@ -41419,7 +41419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>650500</v>
       </c>
@@ -41507,7 +41507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>650600</v>
       </c>
@@ -41595,7 +41595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>650700</v>
       </c>
@@ -41683,7 +41683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>660000</v>
       </c>
@@ -41771,7 +41771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>670000</v>
       </c>
@@ -41859,7 +41859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>680100</v>
       </c>
@@ -41947,7 +41947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>680200</v>
       </c>
@@ -42035,7 +42035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>680300</v>
       </c>
@@ -42123,7 +42123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>690100</v>
       </c>
@@ -42211,7 +42211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>690200</v>
       </c>
@@ -42299,7 +42299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>700100</v>
       </c>
@@ -42387,7 +42387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>700200</v>
       </c>
@@ -42475,7 +42475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>700300</v>
       </c>
@@ -42563,7 +42563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>700400</v>
       </c>
@@ -42651,7 +42651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>700500</v>
       </c>
@@ -42737,7 +42737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>710100</v>
       </c>
@@ -42825,7 +42825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>710200</v>
       </c>
@@ -42913,7 +42913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>720100</v>
       </c>
@@ -43001,7 +43001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>720200</v>
       </c>
@@ -43089,7 +43089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>720300</v>
       </c>
@@ -43177,7 +43177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>730100</v>
       </c>
@@ -43265,7 +43265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>730200</v>
       </c>
@@ -43353,7 +43353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>730300</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>750000</v>
       </c>
@@ -43529,7 +43529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>760100</v>
       </c>
@@ -43617,7 +43617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>760200</v>
       </c>
@@ -43705,7 +43705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>770100</v>
       </c>
@@ -43793,7 +43793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>770200</v>
       </c>
@@ -43881,7 +43881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>770300</v>
       </c>
@@ -43969,7 +43969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>770400</v>
       </c>
@@ -44057,7 +44057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>770500</v>
       </c>
@@ -44145,7 +44145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>780100</v>
       </c>
@@ -44233,7 +44233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>780200</v>
       </c>
@@ -44321,7 +44321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>780300</v>
       </c>
@@ -44407,7 +44407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>780400</v>
       </c>
@@ -44495,7 +44495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>790100</v>
       </c>
@@ -44581,7 +44581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>790200</v>
       </c>
@@ -44667,7 +44667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>790300</v>
       </c>
@@ -44755,7 +44755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>800100</v>
       </c>
@@ -44843,7 +44843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>800200</v>
       </c>
@@ -44931,7 +44931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>810000</v>
       </c>
@@ -45019,7 +45019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>820000</v>
       </c>
@@ -45107,7 +45107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>830000</v>
       </c>
@@ -45195,7 +45195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>840000</v>
       </c>
@@ -45283,7 +45283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>850000</v>
       </c>
@@ -45369,7 +45369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>860000</v>
       </c>
@@ -45457,7 +45457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>870000</v>
       </c>
@@ -45889,25 +45889,25 @@
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="20" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
         <v>525</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" s="27" t="s">
         <v>527</v>
       </c>
@@ -45951,7 +45951,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" s="27" t="s">
         <v>541</v>
       </c>
@@ -45995,7 +45995,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -46048,7 +46048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -46101,7 +46101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -46154,7 +46154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -46207,7 +46207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>561</v>
       </c>
@@ -46257,7 +46257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -46310,7 +46310,7 @@
         <v>0.94166040230902204</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -46363,7 +46363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -46416,7 +46416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -46469,7 +46469,7 @@
         <v>0.95200977870694903</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -46522,7 +46522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -46575,7 +46575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -46628,7 +46628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -46681,7 +46681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -46702,7 +46702,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="38"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -46755,7 +46755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -46808,7 +46808,7 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -46861,7 +46861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -46914,7 +46914,7 @@
         <v>0.94234466577596099</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -46967,7 +46967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -47020,7 +47020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -47073,7 +47073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -47126,25 +47126,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="P30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D34" s="63" t="s">
         <v>578</v>
       </c>
@@ -47173,7 +47173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
         <v>580</v>
       </c>
@@ -47233,7 +47233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>581</v>
       </c>
@@ -47271,7 +47271,7 @@
       <c r="T36" s="53"/>
       <c r="U36" s="54"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>581</v>
       </c>
@@ -47309,7 +47309,7 @@
       <c r="T37" s="56"/>
       <c r="U37" s="57"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>581</v>
       </c>
@@ -47347,7 +47347,7 @@
       <c r="T38" s="56"/>
       <c r="U38" s="57"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>581</v>
       </c>
@@ -47385,7 +47385,7 @@
       <c r="T39" s="56"/>
       <c r="U39" s="57"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>581</v>
       </c>
@@ -47423,7 +47423,7 @@
       <c r="T40" s="56"/>
       <c r="U40" s="57"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>581</v>
       </c>
@@ -47461,7 +47461,7 @@
       <c r="T41" s="56"/>
       <c r="U41" s="57"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>581</v>
       </c>
@@ -47499,7 +47499,7 @@
       <c r="T42" s="56"/>
       <c r="U42" s="57"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>581</v>
       </c>
@@ -47537,7 +47537,7 @@
       <c r="T43" s="56"/>
       <c r="U43" s="57"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>581</v>
       </c>
@@ -47575,7 +47575,7 @@
       <c r="T44" s="56"/>
       <c r="U44" s="57"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
         <v>582</v>
       </c>
@@ -47625,7 +47625,7 @@
       <c r="T45" s="56"/>
       <c r="U45" s="57"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
         <v>582</v>
       </c>
@@ -47675,7 +47675,7 @@
       <c r="T46" s="56"/>
       <c r="U46" s="57"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>583</v>
       </c>
@@ -47740,7 +47740,7 @@
       <c r="T47" s="56"/>
       <c r="U47" s="57"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>583</v>
       </c>
@@ -47805,7 +47805,7 @@
       <c r="T48" s="56"/>
       <c r="U48" s="57"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>583</v>
       </c>
@@ -47870,7 +47870,7 @@
       <c r="T49" s="56"/>
       <c r="U49" s="57"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>583</v>
       </c>
@@ -47935,7 +47935,7 @@
       <c r="T50" s="56"/>
       <c r="U50" s="57"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>583</v>
       </c>
@@ -48000,7 +48000,7 @@
       <c r="T51" s="56"/>
       <c r="U51" s="57"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>583</v>
       </c>
@@ -48065,7 +48065,7 @@
       <c r="T52" s="56"/>
       <c r="U52" s="57"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>583</v>
       </c>
@@ -48130,7 +48130,7 @@
       <c r="T53" s="56"/>
       <c r="U53" s="57"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>583</v>
       </c>
@@ -48195,7 +48195,7 @@
       <c r="T54" s="56"/>
       <c r="U54" s="57"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>583</v>
       </c>
@@ -48260,7 +48260,7 @@
       <c r="T55" s="56"/>
       <c r="U55" s="57"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>583</v>
       </c>
@@ -48289,7 +48289,7 @@
       <c r="T56" s="56"/>
       <c r="U56" s="57"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>583</v>
       </c>
@@ -48354,7 +48354,7 @@
       <c r="T57" s="56"/>
       <c r="U57" s="57"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>583</v>
       </c>
@@ -48419,7 +48419,7 @@
       <c r="T58" s="56"/>
       <c r="U58" s="57"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
         <v>583</v>
       </c>
@@ -48484,7 +48484,7 @@
       <c r="T59" s="56"/>
       <c r="U59" s="57"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>583</v>
       </c>
@@ -48549,7 +48549,7 @@
       <c r="T60" s="56"/>
       <c r="U60" s="57"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>583</v>
       </c>
@@ -48614,7 +48614,7 @@
       <c r="T61" s="56"/>
       <c r="U61" s="57"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>583</v>
       </c>
@@ -48679,7 +48679,7 @@
       <c r="T62" s="56"/>
       <c r="U62" s="57"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>583</v>
       </c>
@@ -48744,7 +48744,7 @@
       <c r="T63" s="56"/>
       <c r="U63" s="57"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>583</v>
       </c>
@@ -48809,7 +48809,7 @@
       <c r="T64" s="56"/>
       <c r="U64" s="57"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>583</v>
       </c>
@@ -48874,7 +48874,7 @@
       <c r="T65" s="56"/>
       <c r="U65" s="57"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>583</v>
       </c>
@@ -48939,7 +48939,7 @@
       <c r="T66" s="56"/>
       <c r="U66" s="57"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>583</v>
       </c>
@@ -49004,7 +49004,7 @@
       <c r="T67" s="56"/>
       <c r="U67" s="57"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
         <v>583</v>
       </c>
@@ -49069,7 +49069,7 @@
       <c r="T68" s="56"/>
       <c r="U68" s="57"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
         <v>584</v>
       </c>
@@ -49122,7 +49122,7 @@
       <c r="T69" s="56"/>
       <c r="U69" s="57"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
         <v>584</v>
       </c>
@@ -49205,9 +49205,9 @@
       <selection activeCell="B2" sqref="B2:T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>exio_usa!B35</f>
         <v>USA</v>
@@ -49289,7 +49289,7 @@
         <v>Services</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>exio_usa!B36</f>
         <v>200100</v>
@@ -49371,7 +49371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>exio_usa!B37</f>
         <v>200200</v>
@@ -49453,7 +49453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>exio_usa!B38</f>
         <v>200300</v>
@@ -49535,7 +49535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>exio_usa!B39</f>
         <v>200400</v>
@@ -49617,7 +49617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>exio_usa!B40</f>
         <v>200500</v>
@@ -49699,7 +49699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>exio_usa!B41</f>
         <v>200600</v>
@@ -49781,7 +49781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>exio_usa!B42</f>
         <v>200700</v>
@@ -49863,7 +49863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>exio_usa!B43</f>
         <v>200800</v>
@@ -49945,7 +49945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>exio_usa!B44</f>
         <v>200900</v>
@@ -50027,7 +50027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>exio_usa!B45</f>
         <v>350100</v>
@@ -50109,7 +50109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>exio_usa!B46</f>
         <v>350200</v>
@@ -50191,7 +50191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>exio_usa!B47</f>
         <v>370101</v>
@@ -50273,7 +50273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>exio_usa!B48</f>
         <v>370200</v>
@@ -50355,7 +50355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>exio_usa!B49</f>
         <v>370300</v>
@@ -50437,7 +50437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>exio_usa!B50</f>
         <v>380400</v>
@@ -50519,7 +50519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>exio_usa!B51</f>
         <v>380800</v>
@@ -50601,7 +50601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>exio_usa!B52</f>
         <v>381100</v>
@@ -50683,7 +50683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>exio_usa!B53</f>
         <v>380100</v>
@@ -50765,7 +50765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>exio_usa!B54</f>
         <v>380700</v>
@@ -50847,7 +50847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>exio_usa!B55</f>
         <v>381200</v>
@@ -50929,7 +50929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>exio_usa!B56</f>
         <v>370102</v>
@@ -51011,7 +51011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>exio_usa!B57</f>
         <v>380200</v>
@@ -51093,7 +51093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>exio_usa!B58</f>
         <v>380300</v>
@@ -51175,7 +51175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>exio_usa!B59</f>
         <v>381300</v>
@@ -51257,7 +51257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>exio_usa!B60</f>
         <v>381400</v>
@@ -51339,7 +51339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>exio_usa!B61</f>
         <v>380900</v>
@@ -51421,7 +51421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>exio_usa!B62</f>
         <v>381000</v>
@@ -51503,7 +51503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>exio_usa!B63</f>
         <v>380500</v>
@@ -51585,7 +51585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>exio_usa!B64</f>
         <v>380600</v>
@@ -51667,7 +51667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>exio_usa!B65</f>
         <v>370400</v>
@@ -51749,7 +51749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>exio_usa!B66</f>
         <v>370103</v>
@@ -51831,7 +51831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>exio_usa!B67</f>
         <v>370104</v>
@@ -51913,7 +51913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>exio_usa!B68</f>
         <v>370105</v>
@@ -51995,7 +51995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>exio_usa!B69</f>
         <v>280100</v>
@@ -52077,7 +52077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>exio_usa!B70</f>
         <v>280200</v>
